--- a/data/trans_dic/P25A_12_R2-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P25A_12_R2-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con limitación por trastornos de ansiedad</t>
+          <t>Población con limitación por trastornos de ansiedad (tasa de respuesta: 99,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +601,72 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,28%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,17%</t>
+          <t>4,62%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>52,22%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,4%</t>
+          <t>7,18%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,64%</t>
+          <t>5,73%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>7,11%</t>
+          <t>6,51%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>52,54%</t>
+          <t>6,81%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,38%</t>
+          <t>7,35%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>5,47%</t>
+          <t>11,59%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>5,54%</t>
+          <t>14,78%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>52,44%</t>
+          <t>9,64%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>5,51%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>5,77%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>5,84%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>8,4%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>11,05%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>7,78%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,78; 7,44</t>
+          <t>2,72; 7,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,78; 6,71</t>
+          <t>2,9; 7,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,38; 5,75</t>
+          <t>2,54; 6,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>41,19; 64,9</t>
+          <t>3,7; 6,77</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,68; 8,41</t>
+          <t>5,5; 9,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,11; 8,71</t>
+          <t>3,9; 7,99</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,58; 8,94</t>
+          <t>4,84; 8,37</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>45,35; 60,53</t>
+          <t>5,25; 8,63</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,21; 7,11</t>
+          <t>5,69; 9,16</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>4,33; 6,92</t>
+          <t>9,48; 13,73</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>4,41; 6,8</t>
+          <t>12,65; 17,24</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>45,94; 58,91</t>
+          <t>7,4; 12,13</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>4,29; 7,19</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>4,52; 7,36</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>4,59; 7,13</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>7,17; 9,88</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>9,53; 12,68</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>6,26; 9,59</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,04%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>63,51%</t>
+          <t>3,1%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>6,86%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>4,87%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>8,31%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>8,33%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>7,72%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>12,96%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>13,83%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>13,76%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>5,3%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>5,86%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>5,4%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
           <t>7,8%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>8,32%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>7,23%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>61,48%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>4,98%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>5,84%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>5,13%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>61,89%</t>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>10,19%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>9,32%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,13; 3,68</t>
+          <t>1,18; 3,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,14; 5,32</t>
+          <t>2,1; 5,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,91; 4,77</t>
+          <t>1,78; 4,68</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>33,66; 86,03</t>
+          <t>1,46; 6,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,59; 10,93</t>
+          <t>3,95; 10,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,5; 11,08</t>
+          <t>3,21; 7,12</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,31; 9,89</t>
+          <t>5,91; 12,1</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>45,7; 75,42</t>
+          <t>6,5; 10,99</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,57; 6,68</t>
+          <t>5,68; 11,88</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,62; 7,32</t>
+          <t>8,5; 18,36</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,9; 6,66</t>
+          <t>9,4; 18,96</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>47,59; 73,35</t>
+          <t>10,67; 17,41</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>3,96; 7,59</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>4,6; 7,29</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>4,1; 7,53</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>5,63; 10,72</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>7,64; 13,2</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>7,48; 11,39</t>
         </is>
       </c>
     </row>
@@ -936,17 +1105,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -956,42 +1125,72 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>8,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>9,01%</t>
+          <t>4,85%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>8,08%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>9,2%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>8,28%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>6,05%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>6,62%</t>
-        </is>
-      </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>5,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
+          <t>8,88%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>4,52%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>6,8%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>5,82%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>6,84%</t>
         </is>
       </c>
     </row>
@@ -1004,17 +1203,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,2; 8,38</t>
+          <t>1,35; 8,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,52; 8,92</t>
+          <t>1,6; 9,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,11; 7,72</t>
+          <t>1,12; 7,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,42 +1223,72 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,14; 18,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,23; 14,25</t>
+          <t>1,83; 9,99</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,92; 13,5</t>
+          <t>2,6; 9,81</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>5,59; 14,58</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>4,61; 13,17</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>3,21; 11,45</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>4,14; 10,08</t>
-        </is>
-      </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,53; 8,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
+          <t>4,73; 15,39</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>2,51; 7,53</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>4,32; 10,1</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>3,44; 8,76</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>4,11; 10,68</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,33%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,87%</t>
+          <t>4,12%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>53,75%</t>
+          <t>4,63%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>7,2%</t>
+          <t>7,1%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>7,55%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,27%</t>
+          <t>7,06%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>54,41%</t>
+          <t>7,66%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
+          <t>7,6%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>11,89%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>14,57%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>11,14%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
           <t>5,31%</t>
         </is>
       </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>5,75%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>5,39%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>54,22%</t>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>5,93%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>5,67%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>8,26%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>10,85%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>8,27%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,1519 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,39; 4,93</t>
+          <t>2,53; 5,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,97; 5,22</t>
+          <t>3,1; 5,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,59; 4,61</t>
+          <t>2,71; 4,93</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>41,48; 64,32</t>
+          <t>3,52; 6,18</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,8; 8,95</t>
+          <t>5,66; 9,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,41; 8,95</t>
+          <t>4,1; 6,97</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,07; 8,64</t>
+          <t>5,76; 8,72</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>47,93; 61,71</t>
+          <t>6,34; 9,06</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,33; 6,41</t>
+          <t>6,27; 9,16</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,95; 6,75</t>
+          <t>10,14; 14,19</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,59; 6,32</t>
+          <t>12,51; 16,81</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>48,56; 59,81</t>
+          <t>9,62; 13,23</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>4,44; 6,44</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>5,07; 6,98</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>4,85; 6,68</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>7,12; 9,51</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>9,54; 12,18</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>7,16; 9,49</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con limitación por trastornos de ansiedad (tasa de respuesta: 99,86%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>149.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>186.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>73013</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>76109</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>68815</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>11741</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>16368</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>93747</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>117032</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>124077</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>133177</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>27389</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>34884</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>173337</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>190045</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>200186</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>201992</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>39130</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>51253</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>267085</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>45024; 125673</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>47843; 124133</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>41857; 104563</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>8488; 15533</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>12524; 21225</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>63791; 130826</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>87018; 150503</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>95723; 157215</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>102980; 165843</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>22406; 32444</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>29859; 40699</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>133047; 217976</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>148131; 247963</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>156955; 255222</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>158585; 246541</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>33414; 46032</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>44226; 58848</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>215156; 329372</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>30896</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>46717</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>42638</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>2232</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>4985</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>67359</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>114831</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>114126</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>106445</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>8497</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>9225</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>190271</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>145727</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>160842</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>149083</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>10729</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>14211</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>257630</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>16164; 51676</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>28838; 69060</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>24642; 64684</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1055; 4375</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2869; 7426</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>44410; 98406</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>81777; 167266</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>89081; 150523</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>78343; 163804</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>5574; 12036</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>6270; 12647</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>147477; 240770</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>108933; 208873</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>126133; 200123</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>113251; 207890</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>7742; 14747</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>10656; 18402</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>206798; 314989</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>16168</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>18982</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>14471</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>20512</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>21367</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>37413</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>34092</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>36584</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>37535</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>56394</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>48563</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>57096</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>5707; 36514</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>6751; 40068</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4749; 30245</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>7727; 42240</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>10606; 39941</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>22739; 59279</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>18991; 54229</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>19472; 63371</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>20868; 62520</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>35862; 83788</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>28692; 73122</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>34321; 89172</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>129.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>137.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>165.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>179.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>185.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>238.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>207.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>120077</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>141807</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>125925</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>13973</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>21354</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>181619</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>253230</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>275616</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>273714</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>35886</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>44109</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>400192</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>373307</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>417423</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>399638</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>49859</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>65463</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>581811</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>87307; 179313</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>106732; 192277</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>93418; 170150</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>10615; 18648</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>17006; 27452</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>141154; 239817</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>206495; 312832</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>228279; 326116</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>225916; 329921</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>30599; 42821</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>37879; 50902</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>345422; 475394</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>312445; 453063</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>356937; 491289</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>342066; 470871</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>42959; 57366</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>57580; 73469</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>503866; 667471</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
